--- a/Data Dictionary - Spring 2017.xlsx
+++ b/Data Dictionary - Spring 2017.xlsx
@@ -1635,7 +1635,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1649,13 +1649,13 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" customWidth="1"/>
   </cols>

--- a/Data Dictionary - Spring 2017.xlsx
+++ b/Data Dictionary - Spring 2017.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Dictionary - Spring 2017.t'!$A$1:$T$88</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1635,7 +1635,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1649,7 +1649,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data Dictionary - Spring 2017.xlsx
+++ b/Data Dictionary - Spring 2017.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12795"/>
@@ -10,14 +10,14 @@
     <sheet name="Data Dictionary - Spring 2017.t" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Dictionary - Spring 2017.t'!$A$1:$T$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Dictionary - Spring 2017.t'!$A$1:$T$89</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="265">
   <si>
     <t>Scenario</t>
   </si>
@@ -175,9 +175,6 @@
     <t>crew_flight_02</t>
   </si>
   <si>
-    <t>How many hours have you spent in control of an aircraft?</t>
-  </si>
-  <si>
     <t>hours</t>
   </si>
   <si>
@@ -358,451 +355,463 @@
     <t>Use this space to explain your previous answers or provide additional feedback regarding the hygiene space</t>
   </si>
   <si>
+    <t>emr</t>
+  </si>
+  <si>
+    <t>With training, could the 4-person crew successfully and safely egress to the Orion capsule in under one minute?</t>
+  </si>
+  <si>
+    <t>training</t>
+  </si>
+  <si>
+    <t>eva_hch_operability</t>
+  </si>
+  <si>
+    <t>Rate the operability of the hatch leading from the HAB to the airlock</t>
+  </si>
+  <si>
+    <t>eva</t>
+  </si>
+  <si>
+    <t>alk</t>
+  </si>
+  <si>
+    <t>Rate the acceptability of the following aspects of the airlock [Accessibility of panels]</t>
+  </si>
+  <si>
+    <t>In this scenario, were you an EVA astronaut or an intravehicular assistant?</t>
+  </si>
+  <si>
+    <t>EVA astronaut;Intravehicular assistant</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>Use this space to explain your previous answers or provide additional feedback on your EVA experience</t>
+  </si>
+  <si>
+    <t>Overall, rate the acceptability of the entire space habitat layout</t>
+  </si>
+  <si>
+    <t>Overall, rate the acceptability of the volume of the entire space habitat for a crew of 4 for 60 days</t>
+  </si>
+  <si>
+    <t>Identify parts of the habitat where you would change the layout</t>
+  </si>
+  <si>
+    <t>Explain how you would change the layouts of the locations you selected</t>
+  </si>
+  <si>
+    <t>Is there anything else you'd like to tell us about your experience? Are there any changes you would like made to the habitat?</t>
+  </si>
+  <si>
+    <t>crew_champ</t>
+  </si>
+  <si>
+    <t>Are you a current or former CHAMP team member?</t>
+  </si>
+  <si>
+    <t>No;Yes (current);Yes (former)</t>
+  </si>
+  <si>
+    <t>champ</t>
+  </si>
+  <si>
+    <t>Do you have suggestions for how we could improve our test procedures?</t>
+  </si>
+  <si>
+    <t>Rate the acceptability of the following aspects of the airlock [Accessibility of equipment]</t>
+  </si>
+  <si>
+    <t>eva_hch_filter</t>
+  </si>
+  <si>
+    <t>What is your current nationality?</t>
+  </si>
+  <si>
+    <t>No;Yes, in Spring 2016;Yes, in Fall 2016</t>
+  </si>
+  <si>
+    <t>Data_type</t>
+  </si>
+  <si>
+    <t>Exclude_from</t>
+  </si>
+  <si>
+    <t>Data_values</t>
+  </si>
+  <si>
+    <t>Order_Asked</t>
+  </si>
+  <si>
+    <t>Question_Text</t>
+  </si>
+  <si>
+    <t>Spring_2017_Question_Code</t>
+  </si>
+  <si>
+    <t>Thump-Tip Reach (inches)</t>
+  </si>
+  <si>
+    <t>Rate the acceptability of the following aspects of the sleep stations for the tasks you performed [Volume]</t>
+  </si>
+  <si>
+    <t>Use this space to explain your previous answers or provide additional feedback regarding the galley, including the table, oven, food storage, waste bag, and rehydration system.</t>
+  </si>
+  <si>
+    <t>Rate the overall acceptability of the following aspects of the command station for the tasks you performed- remember you would be in a weightless environment [Room to stand together]</t>
+  </si>
+  <si>
+    <t>Rate the overall acceptability of the following aspects of the command station for the tasks you performed- remember you would be in a weightless environment [Height of panels]</t>
+  </si>
+  <si>
+    <t>Rate the overall acceptability of the following aspects of the command station for the tasks you performed- remember you would be in a weightless environment [Layout]</t>
+  </si>
+  <si>
+    <t>Rate the overall acceptability of the following aspects of the command station for the tasks you performed- remember you would be in a weightless environment [Location]</t>
+  </si>
+  <si>
+    <t>Use this space to explain your previous answers or provide additonal feedback regarding the command station</t>
+  </si>
+  <si>
+    <t>Rate the overall acceptability of the following aspects of the technology development station for the tasks you performed- keep in mind the microgravity environment [Layout]</t>
+  </si>
+  <si>
+    <t>Rate the overall acceptability of the following aspects of the technology development station for the tasks you performed- keep in mind the microgravity environment [Location]</t>
+  </si>
+  <si>
+    <t>Rate the overall acceptability of the following aspects of the technology development station for the tasks you performed- keep in mind the microgravity environment [Operability]</t>
+  </si>
+  <si>
+    <t>Rate the overall acceptability of the following aspects of the technology development station for the tasks you performed- keep in mind the microgravity environment [Configurability of hardware rack]</t>
+  </si>
+  <si>
+    <t>Explain if and how the presence of other crew members adversely affected your installation of the WPA hardware (remember this would be taking place in microgravity).</t>
+  </si>
+  <si>
+    <t>Rate the overall acceptability of the following aspects of the exercise area for the tasks your performed [Volume]</t>
+  </si>
+  <si>
+    <t>Rate the overall acceptability of the following aspects of the exercise area for the tasks your performed [Location]</t>
+  </si>
+  <si>
+    <t>Rate the overall acceptability of the following aspects of the exercise area for the tasks your performed [Accessibility]</t>
+  </si>
+  <si>
+    <t>Rate the overall acceptability of the following aspects of the exercise area for the tasks your performed [Operability]</t>
+  </si>
+  <si>
+    <t>Rate the overall acceptability of the following aspects of the personal hygiene area for the tasks your performed [Volume]</t>
+  </si>
+  <si>
+    <t>Rate the overall acceptability of the following aspects of the personal hygiene area for the tasks your performed [Location]</t>
+  </si>
+  <si>
+    <t>Rate the overall acceptability of the following aspects of the personal hygiene area for the tasks your performed [Accessibility]</t>
+  </si>
+  <si>
+    <t>Rate the overall acceptability of the following aspects of the personal hygiene area for the tasks your performed [Privacy]</t>
+  </si>
+  <si>
+    <t>Rate the accessibility of the emergency equipment.</t>
+  </si>
+  <si>
+    <t>Did you operate the hatch during this task?</t>
+  </si>
+  <si>
+    <t>Rate the acceptability of the amount of volume available for 2 crew members to don and doff (put on and take off) the EVA suits</t>
+  </si>
+  <si>
+    <t>Rate the acceptability of the amount of volume available to help don and doff (put on and take off) the EVA suit</t>
+  </si>
+  <si>
+    <t>Use this space to explain your previous answer or provide additional feedback on your EVA experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate the acceptability of the height of the habitat ceiling </t>
+  </si>
+  <si>
+    <t>If you participated in testing in the past, how would you rate the following aspects of the horizontal mock-up vs. the vertical mock-up? [Volume perception]</t>
+  </si>
+  <si>
+    <t>If you participated in testing in the past, how would you rate the following aspects of the horizontal mock-up vs. the vertical mock-up? [Accessibility]</t>
+  </si>
+  <si>
+    <t>If you participated in testing in the past, how would you rate the following aspects of the horizontal mock-up vs. the vertical mock-up? [Privacy]</t>
+  </si>
+  <si>
+    <t>If you participated in testing in the past, how would you rate the following aspects of the horizontal mock-up vs. the vertical mock-up? [Layout]</t>
+  </si>
+  <si>
+    <t>If you participated in testing in the past, how would you rate the following aspects of the horizontal mock-up vs. the vertical mock-up? [Ability to conduct on orbit operations]</t>
+  </si>
+  <si>
+    <t>If you participated in testing in the past, do you prefer the horizontal or vertical mock-up?</t>
+  </si>
+  <si>
+    <t>Explain your answers above</t>
+  </si>
+  <si>
+    <t>crew_national</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>morn</t>
+  </si>
+  <si>
+    <t>dail</t>
+  </si>
+  <si>
+    <t>emer</t>
+  </si>
+  <si>
+    <t>over</t>
+  </si>
+  <si>
+    <t>Airlock;Galley;Sleep Stations;Storage;Command Station;Science;ECLSS;Emergency Path;Technology Development</t>
+  </si>
+  <si>
+    <t>1 - Horizontal significantly better; 6 - Vertical significantly better</t>
+  </si>
+  <si>
+    <t>Horizontal;Vertical</t>
+  </si>
+  <si>
+    <t>act_slp_interference</t>
+  </si>
+  <si>
+    <t>act_ich_interference</t>
+  </si>
+  <si>
+    <t>morn_slp_overall</t>
+  </si>
+  <si>
+    <t>morn_slp_volume</t>
+  </si>
+  <si>
+    <t>morn_slp_location</t>
+  </si>
+  <si>
+    <t>morn_slp_privacy</t>
+  </si>
+  <si>
+    <t>morn_slp_operability</t>
+  </si>
+  <si>
+    <t>morn_slp_feedback</t>
+  </si>
+  <si>
+    <t>morn_gly_volume</t>
+  </si>
+  <si>
+    <t>morn_gly_layout</t>
+  </si>
+  <si>
+    <t>morn_gly_location</t>
+  </si>
+  <si>
+    <t>morn_gly_feedback</t>
+  </si>
+  <si>
+    <t>morn_cmd_volume</t>
+  </si>
+  <si>
+    <t>morn_cmd_height</t>
+  </si>
+  <si>
+    <t>morn_cmd_layout</t>
+  </si>
+  <si>
+    <t>morn_cmd_location</t>
+  </si>
+  <si>
+    <t>morn_cmd_feedback</t>
+  </si>
+  <si>
+    <t>dail_tec_layout</t>
+  </si>
+  <si>
+    <t>dail_tec_location</t>
+  </si>
+  <si>
+    <t>dail_tec_operability</t>
+  </si>
+  <si>
+    <t>dail_tec_configurability</t>
+  </si>
+  <si>
+    <t>dail_tec_interference</t>
+  </si>
+  <si>
+    <t>act_feedback</t>
+  </si>
+  <si>
+    <t>dail_exr_volume</t>
+  </si>
+  <si>
+    <t>dail_exr_location</t>
+  </si>
+  <si>
+    <t>dail_exr_accessibility</t>
+  </si>
+  <si>
+    <t>dail_exr_operability</t>
+  </si>
+  <si>
+    <t>dail_hyg_volume</t>
+  </si>
+  <si>
+    <t>dail_hyg_location</t>
+  </si>
+  <si>
+    <t>dail_hyg_accessibility</t>
+  </si>
+  <si>
+    <t>dail_hyg_privacy</t>
+  </si>
+  <si>
+    <t>over_ich_layout</t>
+  </si>
+  <si>
+    <t>over_ich_volume</t>
+  </si>
+  <si>
+    <t>over_ich_height</t>
+  </si>
+  <si>
+    <t>eva_crew_select</t>
+  </si>
+  <si>
+    <t>emer_training</t>
+  </si>
+  <si>
+    <t>emer_accessibility</t>
+  </si>
+  <si>
+    <t>eva_alk_accessibility_panel</t>
+  </si>
+  <si>
+    <t>eva_alk_accessibility_equipment</t>
+  </si>
+  <si>
+    <t>eva_self_don_doff</t>
+  </si>
+  <si>
+    <t>eva_help_don_doff</t>
+  </si>
+  <si>
+    <t>eva_self_feedback</t>
+  </si>
+  <si>
+    <t>eva_help_feedback</t>
+  </si>
+  <si>
+    <t>over_compare_volume</t>
+  </si>
+  <si>
+    <t>over_compare_accessibility</t>
+  </si>
+  <si>
+    <t>over_compare_privacy</t>
+  </si>
+  <si>
+    <t>over_compare_layout</t>
+  </si>
+  <si>
+    <t>over_compare_operability</t>
+  </si>
+  <si>
+    <t>over_ich_feedback</t>
+  </si>
+  <si>
+    <t>over_compare_feedback</t>
+  </si>
+  <si>
+    <t>over_other_feedback</t>
+  </si>
+  <si>
+    <t>over_procedure_feedback</t>
+  </si>
+  <si>
+    <t>dail_exr_feedback</t>
+  </si>
+  <si>
+    <t>dail_hyg_feedback</t>
+  </si>
+  <si>
+    <t>dail_tec_feedback</t>
+  </si>
+  <si>
+    <t>crew_experience_01</t>
+  </si>
+  <si>
+    <t>crew_experience_02</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Layout</t>
+  </si>
+  <si>
+    <t>Privacy</t>
+  </si>
+  <si>
+    <t>aux</t>
+  </si>
+  <si>
+    <t>over_compare_horiz_vert</t>
+  </si>
+  <si>
+    <t>emer_feedback</t>
+  </si>
+  <si>
+    <t>Use this space to provide any additional feedback about anything relating to the emergency scenario</t>
+  </si>
+  <si>
+    <t>If yes, how many hours have you spent in control of an aircraft?</t>
+  </si>
+  <si>
+    <t>dail_sci_volume</t>
+  </si>
+  <si>
+    <t>Rate the overall acceptability of the following aspects of the science station for the tasks you performed- keep in mind the microgravity environment. [Volume]</t>
+  </si>
+  <si>
     <t>sci</t>
   </si>
   <si>
+    <t>dail_sci_layout</t>
+  </si>
+  <si>
+    <t>Rate the overall acceptability of the following aspects of the science station for the tasks you performed- keep in mind the microgravity environment. [Layout]</t>
+  </si>
+  <si>
+    <t>dail_sci_location</t>
+  </si>
+  <si>
+    <t>Rate the overall acceptability of the following aspects of the science station for the tasks you performed- keep in mind the microgravity environment. [Location]</t>
+  </si>
+  <si>
+    <t>dail_sci_accessibility</t>
+  </si>
+  <si>
+    <t>Rate the overall acceptability of the following aspects of the science station for the tasks you performed- keep in mind the microgravity environment. [Acessibility]</t>
+  </si>
+  <si>
+    <t>dail_sci_interference</t>
+  </si>
+  <si>
+    <t>Explain if and how the presence of other crew members adversely affected your tasks (remember this would be taking place in microgravity).</t>
+  </si>
+  <si>
+    <t>dail_sci_feedback</t>
+  </si>
+  <si>
     <t>Use this space to explain your previous answers or provide additional feedback on the science station</t>
-  </si>
-  <si>
-    <t>emr</t>
-  </si>
-  <si>
-    <t>With training, could the 4-person crew successfully and safely egress to the Orion capsule in under one minute?</t>
-  </si>
-  <si>
-    <t>training</t>
-  </si>
-  <si>
-    <t>eva_hch_operability</t>
-  </si>
-  <si>
-    <t>Rate the operability of the hatch leading from the HAB to the airlock</t>
-  </si>
-  <si>
-    <t>eva</t>
-  </si>
-  <si>
-    <t>alk</t>
-  </si>
-  <si>
-    <t>Rate the acceptability of the following aspects of the airlock [Accessibility of panels]</t>
-  </si>
-  <si>
-    <t>In this scenario, were you an EVA astronaut or an intravehicular assistant?</t>
-  </si>
-  <si>
-    <t>EVA astronaut;Intravehicular assistant</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>Use this space to explain your previous answers or provide additional feedback on your EVA experience</t>
-  </si>
-  <si>
-    <t>Overall, rate the acceptability of the entire space habitat layout</t>
-  </si>
-  <si>
-    <t>Overall, rate the acceptability of the volume of the entire space habitat for a crew of 4 for 60 days</t>
-  </si>
-  <si>
-    <t>Identify parts of the habitat where you would change the layout</t>
-  </si>
-  <si>
-    <t>Explain how you would change the layouts of the locations you selected</t>
-  </si>
-  <si>
-    <t>Is there anything else you'd like to tell us about your experience? Are there any changes you would like made to the habitat?</t>
-  </si>
-  <si>
-    <t>crew_champ</t>
-  </si>
-  <si>
-    <t>Are you a current or former CHAMP team member?</t>
-  </si>
-  <si>
-    <t>No;Yes (current);Yes (former)</t>
-  </si>
-  <si>
-    <t>champ</t>
-  </si>
-  <si>
-    <t>Do you have suggestions for how we could improve our test procedures?</t>
-  </si>
-  <si>
-    <t>Rate the acceptability of the following aspects of the airlock [Accessibility of equipment]</t>
-  </si>
-  <si>
-    <t>eva_hch_filter</t>
-  </si>
-  <si>
-    <t>What is your current nationality?</t>
-  </si>
-  <si>
-    <t>No;Yes, in Spring 2016;Yes, in Fall 2016</t>
-  </si>
-  <si>
-    <t>Data_type</t>
-  </si>
-  <si>
-    <t>Exclude_from</t>
-  </si>
-  <si>
-    <t>Data_values</t>
-  </si>
-  <si>
-    <t>Order_Asked</t>
-  </si>
-  <si>
-    <t>Question_Text</t>
-  </si>
-  <si>
-    <t>Spring_2017_Question_Code</t>
-  </si>
-  <si>
-    <t>Thump-Tip Reach (inches)</t>
-  </si>
-  <si>
-    <t>Rate the acceptability of the following aspects of the sleep stations for the tasks you performed [Volume]</t>
-  </si>
-  <si>
-    <t>Use this space to explain your previous answers or provide additional feedback regarding the galley, including the table, oven, food storage, waste bag, and rehydration system.</t>
-  </si>
-  <si>
-    <t>Rate the overall acceptability of the following aspects of the command station for the tasks you performed- remember you would be in a weightless environment [Room to stand together]</t>
-  </si>
-  <si>
-    <t>Rate the overall acceptability of the following aspects of the command station for the tasks you performed- remember you would be in a weightless environment [Height of panels]</t>
-  </si>
-  <si>
-    <t>Rate the overall acceptability of the following aspects of the command station for the tasks you performed- remember you would be in a weightless environment [Layout]</t>
-  </si>
-  <si>
-    <t>Rate the overall acceptability of the following aspects of the command station for the tasks you performed- remember you would be in a weightless environment [Location]</t>
-  </si>
-  <si>
-    <t>Use this space to explain your previous answers or provide additonal feedback regarding the command station</t>
-  </si>
-  <si>
-    <t>Rate the overall acceptability of the following aspects of the technology development station for the tasks you performed- keep in mind the microgravity environment [Layout]</t>
-  </si>
-  <si>
-    <t>Rate the overall acceptability of the following aspects of the technology development station for the tasks you performed- keep in mind the microgravity environment [Location]</t>
-  </si>
-  <si>
-    <t>Rate the overall acceptability of the following aspects of the technology development station for the tasks you performed- keep in mind the microgravity environment [Operability]</t>
-  </si>
-  <si>
-    <t>Rate the overall acceptability of the following aspects of the technology development station for the tasks you performed- keep in mind the microgravity environment [Configurability of hardware rack]</t>
-  </si>
-  <si>
-    <t>Explain if and how the presence of other crew members adversely affected your installation of the WPA hardware (remember this would be taking place in microgravity).</t>
-  </si>
-  <si>
-    <t>Rate the overall acceptability of the following aspects of the exercise area for the tasks your performed [Volume]</t>
-  </si>
-  <si>
-    <t>Rate the overall acceptability of the following aspects of the exercise area for the tasks your performed [Location]</t>
-  </si>
-  <si>
-    <t>Rate the overall acceptability of the following aspects of the exercise area for the tasks your performed [Accessibility]</t>
-  </si>
-  <si>
-    <t>Rate the overall acceptability of the following aspects of the exercise area for the tasks your performed [Operability]</t>
-  </si>
-  <si>
-    <t>Rate the overall acceptability of the following aspects of the personal hygiene area for the tasks your performed [Volume]</t>
-  </si>
-  <si>
-    <t>Rate the overall acceptability of the following aspects of the personal hygiene area for the tasks your performed [Location]</t>
-  </si>
-  <si>
-    <t>Rate the overall acceptability of the following aspects of the personal hygiene area for the tasks your performed [Accessibility]</t>
-  </si>
-  <si>
-    <t>Rate the overall acceptability of the following aspects of the personal hygiene area for the tasks your performed [Privacy]</t>
-  </si>
-  <si>
-    <t>Rate the overall acceptability of the following aspects of the science station for the tasks you performed- keep in mind the microgravity environment. [Volume]</t>
-  </si>
-  <si>
-    <t>Rate the overall acceptability of the following aspects of the science station for the tasks you performed- keep in mind the microgravity environment. [Layout]</t>
-  </si>
-  <si>
-    <t>Rate the overall acceptability of the following aspects of the science station for the tasks you performed- keep in mind the microgravity environment. [Location]</t>
-  </si>
-  <si>
-    <t>Rate the overall acceptability of the following aspects of the science station for the tasks you performed- keep in mind the microgravity environment. [Acessibility]</t>
-  </si>
-  <si>
-    <t>Explain if and how the presence of other crew members adversely affected your tasks (remember this would be taking place in microgravity).</t>
-  </si>
-  <si>
-    <t>Rate the accessibility of the emergency equipment.</t>
-  </si>
-  <si>
-    <t>Did you operate the hatch during this task?</t>
-  </si>
-  <si>
-    <t>Rate the acceptability of the amount of volume available for 2 crew members to don and doff (put on and take off) the EVA suits</t>
-  </si>
-  <si>
-    <t>Rate the acceptability of the amount of volume available to help don and doff (put on and take off) the EVA suit</t>
-  </si>
-  <si>
-    <t>Use this space to explain your previous answer or provide additional feedback on your EVA experience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rate the acceptability of the height of the habitat ceiling </t>
-  </si>
-  <si>
-    <t>If you participated in testing in the past, how would you rate the following aspects of the horizontal mock-up vs. the vertical mock-up? [Volume perception]</t>
-  </si>
-  <si>
-    <t>If you participated in testing in the past, how would you rate the following aspects of the horizontal mock-up vs. the vertical mock-up? [Accessibility]</t>
-  </si>
-  <si>
-    <t>If you participated in testing in the past, how would you rate the following aspects of the horizontal mock-up vs. the vertical mock-up? [Privacy]</t>
-  </si>
-  <si>
-    <t>If you participated in testing in the past, how would you rate the following aspects of the horizontal mock-up vs. the vertical mock-up? [Layout]</t>
-  </si>
-  <si>
-    <t>If you participated in testing in the past, how would you rate the following aspects of the horizontal mock-up vs. the vertical mock-up? [Ability to conduct on orbit operations]</t>
-  </si>
-  <si>
-    <t>If you participated in testing in the past, do you prefer the horizontal or vertical mock-up?</t>
-  </si>
-  <si>
-    <t>Explain your answers above</t>
-  </si>
-  <si>
-    <t>crew_national</t>
-  </si>
-  <si>
-    <t>act</t>
-  </si>
-  <si>
-    <t>morn</t>
-  </si>
-  <si>
-    <t>dail</t>
-  </si>
-  <si>
-    <t>emer</t>
-  </si>
-  <si>
-    <t>over</t>
-  </si>
-  <si>
-    <t>Airlock;Galley;Sleep Stations;Storage;Command Station;Science;ECLSS;Emergency Path;Technology Development</t>
-  </si>
-  <si>
-    <t>1 - Horizontal significantly better; 6 - Vertical significantly better</t>
-  </si>
-  <si>
-    <t>Horizontal;Vertical</t>
-  </si>
-  <si>
-    <t>act_slp_interference</t>
-  </si>
-  <si>
-    <t>act_ich_interference</t>
-  </si>
-  <si>
-    <t>morn_slp_overall</t>
-  </si>
-  <si>
-    <t>morn_slp_volume</t>
-  </si>
-  <si>
-    <t>morn_slp_location</t>
-  </si>
-  <si>
-    <t>morn_slp_privacy</t>
-  </si>
-  <si>
-    <t>morn_slp_operability</t>
-  </si>
-  <si>
-    <t>morn_slp_feedback</t>
-  </si>
-  <si>
-    <t>morn_gly_volume</t>
-  </si>
-  <si>
-    <t>morn_gly_layout</t>
-  </si>
-  <si>
-    <t>morn_gly_location</t>
-  </si>
-  <si>
-    <t>morn_gly_feedback</t>
-  </si>
-  <si>
-    <t>morn_cmd_volume</t>
-  </si>
-  <si>
-    <t>morn_cmd_height</t>
-  </si>
-  <si>
-    <t>morn_cmd_layout</t>
-  </si>
-  <si>
-    <t>morn_cmd_location</t>
-  </si>
-  <si>
-    <t>morn_cmd_feedback</t>
-  </si>
-  <si>
-    <t>dail_tec_layout</t>
-  </si>
-  <si>
-    <t>dail_tec_location</t>
-  </si>
-  <si>
-    <t>dail_tec_operability</t>
-  </si>
-  <si>
-    <t>dail_tec_configurability</t>
-  </si>
-  <si>
-    <t>dail_tec_interference</t>
-  </si>
-  <si>
-    <t>act_feedback</t>
-  </si>
-  <si>
-    <t>dail_exr_volume</t>
-  </si>
-  <si>
-    <t>dail_exr_location</t>
-  </si>
-  <si>
-    <t>dail_exr_accessibility</t>
-  </si>
-  <si>
-    <t>dail_exr_operability</t>
-  </si>
-  <si>
-    <t>dail_hyg_volume</t>
-  </si>
-  <si>
-    <t>dail_hyg_location</t>
-  </si>
-  <si>
-    <t>dail_hyg_accessibility</t>
-  </si>
-  <si>
-    <t>dail_hyg_privacy</t>
-  </si>
-  <si>
-    <t>dail_sci_volume</t>
-  </si>
-  <si>
-    <t>dail_sci_layout</t>
-  </si>
-  <si>
-    <t>dail_sci_location</t>
-  </si>
-  <si>
-    <t>dail_sci_accessibility</t>
-  </si>
-  <si>
-    <t>over_ich_layout</t>
-  </si>
-  <si>
-    <t>over_ich_volume</t>
-  </si>
-  <si>
-    <t>over_ich_height</t>
-  </si>
-  <si>
-    <t>eva_crew_select</t>
-  </si>
-  <si>
-    <t>emer_training</t>
-  </si>
-  <si>
-    <t>emer_accessibility</t>
-  </si>
-  <si>
-    <t>eva_alk_accessibility_panel</t>
-  </si>
-  <si>
-    <t>eva_alk_accessibility_equipment</t>
-  </si>
-  <si>
-    <t>eva_self_don_doff</t>
-  </si>
-  <si>
-    <t>eva_help_don_doff</t>
-  </si>
-  <si>
-    <t>eva_self_feedback</t>
-  </si>
-  <si>
-    <t>eva_help_feedback</t>
-  </si>
-  <si>
-    <t>over_compare_volume</t>
-  </si>
-  <si>
-    <t>over_compare_accessibility</t>
-  </si>
-  <si>
-    <t>over_compare_privacy</t>
-  </si>
-  <si>
-    <t>over_compare_layout</t>
-  </si>
-  <si>
-    <t>over_compare_operability</t>
-  </si>
-  <si>
-    <t>over_ich_feedback</t>
-  </si>
-  <si>
-    <t>over_compare_feedback</t>
-  </si>
-  <si>
-    <t>over_other_feedback</t>
-  </si>
-  <si>
-    <t>over_procedure_feedback</t>
-  </si>
-  <si>
-    <t>dail_exr_feedback</t>
-  </si>
-  <si>
-    <t>dail_hyg_feedback</t>
-  </si>
-  <si>
-    <t>dail_sci_interference</t>
-  </si>
-  <si>
-    <t>dail_sci_feedback</t>
-  </si>
-  <si>
-    <t>dail_tec_feedback</t>
-  </si>
-  <si>
-    <t>crew_experience_01</t>
-  </si>
-  <si>
-    <t>crew_experience_02</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Layout</t>
-  </si>
-  <si>
-    <t>Privacy</t>
-  </si>
-  <si>
-    <t>aux</t>
   </si>
 </sst>
 </file>
@@ -1286,7 +1295,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1338,9 +1348,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1643,13 +1650,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T88"/>
+  <dimension ref="A1:T89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1662,22 +1669,22 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" t="s">
         <v>141</v>
-      </c>
-      <c r="D1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" t="s">
-        <v>144</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -1692,13 +1699,13 @@
         <v>3</v>
       </c>
       <c r="K1" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="L1" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="M1" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="N1" t="s">
         <v>1</v>
@@ -1739,7 +1746,7 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
@@ -1792,7 +1799,7 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
@@ -1845,7 +1852,7 @@
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I4" t="s">
         <v>21</v>
@@ -1901,7 +1908,7 @@
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I5" t="s">
         <v>26</v>
@@ -1948,7 +1955,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -1957,7 +1964,7 @@
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I6" t="s">
         <v>29</v>
@@ -1995,16 +2002,16 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -2013,10 +2020,10 @@
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -2069,7 +2076,7 @@
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
@@ -2125,7 +2132,7 @@
         <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I9" t="s">
         <v>38</v>
@@ -2163,10 +2170,10 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -2178,7 +2185,7 @@
         <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I10" t="s">
         <v>39</v>
@@ -2231,7 +2238,7 @@
         <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I11" t="s">
         <v>44</v>
@@ -2284,7 +2291,7 @@
         <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I12" t="s">
         <v>47</v>
@@ -2340,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I13" t="s">
         <v>50</v>
@@ -2384,13 +2391,13 @@
         <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>251</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14">
         <v>12</v>
@@ -2399,7 +2406,7 @@
         <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I14" t="s">
         <v>50</v>
@@ -2440,16 +2447,16 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
         <v>54</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>55</v>
-      </c>
-      <c r="D15" t="s">
-        <v>56</v>
       </c>
       <c r="F15">
         <v>13</v>
@@ -2458,10 +2465,10 @@
         <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -2496,10 +2503,10 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -2511,10 +2518,10 @@
         <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -2549,10 +2556,10 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
         <v>59</v>
-      </c>
-      <c r="B17" t="s">
-        <v>60</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
@@ -2567,10 +2574,10 @@
         <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -2608,10 +2615,10 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
         <v>62</v>
-      </c>
-      <c r="B18" t="s">
-        <v>63</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -2623,10 +2630,10 @@
         <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -2664,16 +2671,16 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
         <v>64</v>
-      </c>
-      <c r="B19" t="s">
-        <v>65</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19">
         <v>17</v>
@@ -2682,10 +2689,10 @@
         <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -2723,10 +2730,10 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
         <v>66</v>
-      </c>
-      <c r="B20" t="s">
-        <v>67</v>
       </c>
       <c r="C20" t="s">
         <v>40</v>
@@ -2741,10 +2748,10 @@
         <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -2782,16 +2789,16 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
         <v>68</v>
-      </c>
-      <c r="B21" t="s">
-        <v>69</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F21">
         <v>19</v>
@@ -2800,10 +2807,10 @@
         <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2838,16 +2845,16 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
         <v>72</v>
-      </c>
-      <c r="B22" t="s">
-        <v>73</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F22">
         <v>20</v>
@@ -2856,10 +2863,10 @@
         <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2894,16 +2901,16 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F23">
         <v>21</v>
@@ -2912,10 +2919,10 @@
         <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2950,28 +2957,28 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" t="s">
         <v>81</v>
-      </c>
-      <c r="C24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" t="s">
-        <v>82</v>
       </c>
       <c r="F24">
         <v>22</v>
       </c>
       <c r="G24" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="H24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" t="s">
         <v>83</v>
-      </c>
-      <c r="I24" t="s">
-        <v>84</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -3006,28 +3013,28 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F25">
         <v>23</v>
       </c>
       <c r="G25" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="H25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -3062,10 +3069,10 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
@@ -3074,13 +3081,13 @@
         <v>24</v>
       </c>
       <c r="G26" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="H26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -3115,28 +3122,28 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" t="s">
         <v>88</v>
-      </c>
-      <c r="C27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" t="s">
-        <v>89</v>
       </c>
       <c r="F27">
         <v>25</v>
       </c>
       <c r="G27" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -3171,28 +3178,28 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B28" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F28">
         <v>26</v>
       </c>
       <c r="G28" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -3227,28 +3234,28 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F29">
         <v>27</v>
       </c>
       <c r="G29" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3283,28 +3290,28 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F30">
         <v>28</v>
       </c>
       <c r="G30" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3339,28 +3346,28 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F31">
         <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3395,10 +3402,10 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
@@ -3407,13 +3414,13 @@
         <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3448,28 +3455,28 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F33">
         <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -3504,28 +3511,28 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F34">
         <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3560,28 +3567,28 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F35">
         <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3616,10 +3623,10 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B36" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
@@ -3628,13 +3635,13 @@
         <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3669,28 +3676,28 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B37" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F37">
         <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -3725,28 +3732,28 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B38" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F38">
         <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3781,28 +3788,28 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B39" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F39">
         <v>37</v>
       </c>
       <c r="G39" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3837,28 +3844,28 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B40" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F40">
         <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3893,10 +3900,10 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B41" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
@@ -3905,13 +3912,13 @@
         <v>39</v>
       </c>
       <c r="G41" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -3946,28 +3953,28 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B42" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F42">
         <v>40</v>
       </c>
       <c r="G42" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -4002,28 +4009,28 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B43" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F43">
         <v>41</v>
       </c>
       <c r="G43" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -4058,28 +4065,28 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B44" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F44">
         <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -4114,28 +4121,28 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B45" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F45">
         <v>43</v>
       </c>
       <c r="G45" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -4170,10 +4177,10 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B46" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
@@ -4182,13 +4189,13 @@
         <v>44</v>
       </c>
       <c r="G46" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -4223,10 +4230,10 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
@@ -4235,13 +4242,13 @@
         <v>45</v>
       </c>
       <c r="G47" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -4276,28 +4283,28 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B48" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F48">
         <v>46</v>
       </c>
       <c r="G48" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -4332,28 +4339,28 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B49" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F49">
         <v>47</v>
       </c>
       <c r="G49" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -4388,28 +4395,28 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B50" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F50">
         <v>48</v>
       </c>
       <c r="G50" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -4444,28 +4451,28 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D51" t="s">
-        <v>89</v>
-      </c>
-      <c r="F51">
+        <v>88</v>
+      </c>
+      <c r="F51" s="1">
         <v>49</v>
       </c>
       <c r="G51" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -4500,25 +4507,25 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="1">
         <v>50</v>
       </c>
       <c r="G52" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -4553,28 +4560,28 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B53" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D53" t="s">
-        <v>89</v>
-      </c>
-      <c r="F53">
+        <v>88</v>
+      </c>
+      <c r="F53" s="1">
         <v>51</v>
       </c>
       <c r="G53" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -4609,28 +4616,28 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B54" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D54" t="s">
-        <v>89</v>
-      </c>
-      <c r="F54">
+        <v>88</v>
+      </c>
+      <c r="F54" s="1">
         <v>52</v>
       </c>
       <c r="G54" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -4665,28 +4672,28 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B55" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D55" t="s">
-        <v>89</v>
-      </c>
-      <c r="F55">
+        <v>88</v>
+      </c>
+      <c r="F55" s="1">
         <v>53</v>
       </c>
       <c r="G55" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -4721,28 +4728,28 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B56" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
-      </c>
-      <c r="F56">
+        <v>88</v>
+      </c>
+      <c r="F56" s="1">
         <v>54</v>
       </c>
       <c r="G56" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -4777,25 +4784,25 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="1">
         <v>55</v>
       </c>
       <c r="G57" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -4829,341 +4836,355 @@
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>226</v>
-      </c>
-      <c r="B58" t="s">
-        <v>168</v>
-      </c>
-      <c r="C58" t="s">
-        <v>77</v>
-      </c>
-      <c r="D58" t="s">
-        <v>89</v>
-      </c>
-      <c r="F58">
+      <c r="A58" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1">
         <v>56</v>
       </c>
-      <c r="G58" t="s">
-        <v>189</v>
-      </c>
-      <c r="H58" t="s">
-        <v>113</v>
-      </c>
-      <c r="I58" t="s">
-        <v>91</v>
-      </c>
-      <c r="K58">
-        <v>1</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-      <c r="T58">
+      <c r="G58" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1">
+        <v>1</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0</v>
+      </c>
+      <c r="M58" s="1">
+        <v>0</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0</v>
+      </c>
+      <c r="O58" s="1">
+        <v>0</v>
+      </c>
+      <c r="P58" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>0</v>
+      </c>
+      <c r="R58" s="1">
+        <v>0</v>
+      </c>
+      <c r="S58" s="1">
+        <v>0</v>
+      </c>
+      <c r="T58" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>227</v>
-      </c>
-      <c r="B59" t="s">
-        <v>169</v>
-      </c>
-      <c r="C59" t="s">
-        <v>77</v>
-      </c>
-      <c r="D59" t="s">
-        <v>89</v>
-      </c>
-      <c r="F59">
+      <c r="A59" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1">
         <v>57</v>
       </c>
-      <c r="G59" t="s">
-        <v>189</v>
-      </c>
-      <c r="H59" t="s">
-        <v>113</v>
-      </c>
-      <c r="I59" t="s">
-        <v>96</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>1</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
-      <c r="T59">
+      <c r="G59" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1">
+        <v>1</v>
+      </c>
+      <c r="M59" s="1">
+        <v>0</v>
+      </c>
+      <c r="N59" s="1">
+        <v>1</v>
+      </c>
+      <c r="O59" s="1">
+        <v>0</v>
+      </c>
+      <c r="P59" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>0</v>
+      </c>
+      <c r="R59" s="1">
+        <v>0</v>
+      </c>
+      <c r="S59" s="1">
+        <v>0</v>
+      </c>
+      <c r="T59" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>228</v>
-      </c>
-      <c r="B60" t="s">
-        <v>170</v>
-      </c>
-      <c r="C60" t="s">
-        <v>77</v>
-      </c>
-      <c r="D60" t="s">
-        <v>89</v>
-      </c>
-      <c r="F60">
+      <c r="A60" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1">
         <v>58</v>
       </c>
-      <c r="G60" t="s">
-        <v>189</v>
-      </c>
-      <c r="H60" t="s">
-        <v>113</v>
-      </c>
-      <c r="I60" t="s">
-        <v>93</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>1</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
-      <c r="T60">
+      <c r="G60" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1">
+        <v>1</v>
+      </c>
+      <c r="M60" s="1">
+        <v>0</v>
+      </c>
+      <c r="N60" s="1">
+        <v>1</v>
+      </c>
+      <c r="O60" s="1">
+        <v>0</v>
+      </c>
+      <c r="P60" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>0</v>
+      </c>
+      <c r="R60" s="1">
+        <v>0</v>
+      </c>
+      <c r="S60" s="1">
+        <v>0</v>
+      </c>
+      <c r="T60" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>229</v>
-      </c>
-      <c r="B61" t="s">
-        <v>171</v>
-      </c>
-      <c r="C61" t="s">
-        <v>77</v>
-      </c>
-      <c r="D61" t="s">
-        <v>89</v>
-      </c>
-      <c r="F61">
+      <c r="A61" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1">
         <v>59</v>
       </c>
-      <c r="G61" t="s">
-        <v>189</v>
-      </c>
-      <c r="H61" t="s">
-        <v>113</v>
-      </c>
-      <c r="I61" t="s">
-        <v>106</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>1</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-      <c r="T61">
+      <c r="G61" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0</v>
+      </c>
+      <c r="M61" s="1">
+        <v>0</v>
+      </c>
+      <c r="N61" s="1">
+        <v>0</v>
+      </c>
+      <c r="O61" s="1">
+        <v>0</v>
+      </c>
+      <c r="P61" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>1</v>
+      </c>
+      <c r="R61" s="1">
+        <v>0</v>
+      </c>
+      <c r="S61" s="1">
+        <v>0</v>
+      </c>
+      <c r="T61" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>253</v>
-      </c>
-      <c r="B62" t="s">
-        <v>172</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="A62" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F62">
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1">
         <v>60</v>
       </c>
-      <c r="G62" t="s">
-        <v>189</v>
-      </c>
-      <c r="H62" t="s">
-        <v>113</v>
-      </c>
-      <c r="I62" t="s">
-        <v>84</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>1</v>
-      </c>
-      <c r="P62">
-        <v>1</v>
-      </c>
-      <c r="Q62">
-        <v>1</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-      <c r="S62">
-        <v>0</v>
-      </c>
-      <c r="T62">
+      <c r="G62" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1">
+        <v>0</v>
+      </c>
+      <c r="L62" s="1">
+        <v>0</v>
+      </c>
+      <c r="M62" s="1">
+        <v>0</v>
+      </c>
+      <c r="N62" s="1">
+        <v>0</v>
+      </c>
+      <c r="O62" s="1">
+        <v>1</v>
+      </c>
+      <c r="P62" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>1</v>
+      </c>
+      <c r="R62" s="1">
+        <v>0</v>
+      </c>
+      <c r="S62" s="1">
+        <v>0</v>
+      </c>
+      <c r="T62" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1">
+        <v>61</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B63" t="s">
-        <v>114</v>
-      </c>
-      <c r="C63" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63">
-        <v>61</v>
-      </c>
-      <c r="G63" t="s">
-        <v>189</v>
-      </c>
-      <c r="H63" t="s">
-        <v>113</v>
-      </c>
-      <c r="I63" t="s">
-        <v>80</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63">
-        <v>1</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
-      <c r="T63">
+      <c r="I63" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1">
+        <v>0</v>
+      </c>
+      <c r="M63" s="1">
+        <v>0</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0</v>
+      </c>
+      <c r="O63" s="1">
+        <v>0</v>
+      </c>
+      <c r="P63" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>0</v>
+      </c>
+      <c r="R63" s="1">
+        <v>0</v>
+      </c>
+      <c r="S63" s="1">
+        <v>0</v>
+      </c>
+      <c r="T63" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C64" t="s">
         <v>40</v>
@@ -5171,17 +5192,17 @@
       <c r="D64" t="s">
         <v>41</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="1">
         <v>62</v>
       </c>
       <c r="G64" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="H64" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I64" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -5216,28 +5237,28 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B65" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D65" t="s">
-        <v>89</v>
-      </c>
-      <c r="F65">
+        <v>88</v>
+      </c>
+      <c r="F65" s="1">
         <v>63</v>
       </c>
       <c r="G65" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="H65" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -5272,10 +5293,10 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B66" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C66" t="s">
         <v>40</v>
@@ -5283,17 +5304,17 @@
       <c r="D66" t="s">
         <v>41</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="1">
         <v>64</v>
       </c>
       <c r="G66" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I66" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -5331,28 +5352,28 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B67" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C67" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67" t="s">
         <v>77</v>
       </c>
-      <c r="D67" t="s">
+      <c r="F67" s="1">
+        <v>65</v>
+      </c>
+      <c r="G67" t="s">
+        <v>117</v>
+      </c>
+      <c r="H67" t="s">
         <v>78</v>
       </c>
-      <c r="F67">
-        <v>65</v>
-      </c>
-      <c r="G67" t="s">
-        <v>120</v>
-      </c>
-      <c r="H67" t="s">
-        <v>79</v>
-      </c>
       <c r="I67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J67">
         <v>2</v>
@@ -5390,28 +5411,28 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="B68" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D68" t="s">
-        <v>89</v>
-      </c>
-      <c r="F68">
+        <v>88</v>
+      </c>
+      <c r="F68" s="1">
         <v>66</v>
       </c>
       <c r="G68" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H68" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -5446,28 +5467,28 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D69" t="s">
-        <v>89</v>
-      </c>
-      <c r="F69">
+        <v>88</v>
+      </c>
+      <c r="F69" s="1">
         <v>67</v>
       </c>
       <c r="G69" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H69" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -5502,28 +5523,28 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B70" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C70" t="s">
         <v>24</v>
       </c>
       <c r="D70" t="s">
-        <v>124</v>
-      </c>
-      <c r="F70">
+        <v>121</v>
+      </c>
+      <c r="F70" s="1">
         <v>68</v>
       </c>
       <c r="G70" t="s">
         <v>13</v>
       </c>
       <c r="H70" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I70" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -5561,28 +5582,28 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B71" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D71" t="s">
-        <v>89</v>
-      </c>
-      <c r="F71">
+        <v>88</v>
+      </c>
+      <c r="F71" s="1">
         <v>69</v>
       </c>
       <c r="G71" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H71" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -5620,25 +5641,25 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="B72" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C72" t="s">
         <v>12</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="1">
         <v>70</v>
       </c>
       <c r="G72" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H72" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I72" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J72">
         <v>3</v>
@@ -5676,28 +5697,28 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B73" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D73" t="s">
-        <v>89</v>
-      </c>
-      <c r="F73">
+        <v>88</v>
+      </c>
+      <c r="F73" s="1">
         <v>71</v>
       </c>
       <c r="G73" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J73">
         <v>2</v>
@@ -5735,25 +5756,25 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B74" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="1">
         <v>72</v>
       </c>
       <c r="G74" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H74" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J74">
         <v>3</v>
@@ -5791,28 +5812,28 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B75" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D75" t="s">
-        <v>89</v>
-      </c>
-      <c r="F75">
+        <v>88</v>
+      </c>
+      <c r="F75" s="1">
         <v>73</v>
       </c>
       <c r="G75" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H75" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I75" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -5847,28 +5868,28 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="B76" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D76" t="s">
-        <v>89</v>
-      </c>
-      <c r="F76">
+        <v>88</v>
+      </c>
+      <c r="F76" s="1">
         <v>74</v>
       </c>
       <c r="G76" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K76">
         <v>1</v>
@@ -5903,28 +5924,28 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B77" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D77" t="s">
-        <v>89</v>
-      </c>
-      <c r="F77">
+        <v>88</v>
+      </c>
+      <c r="F77" s="1">
         <v>75</v>
       </c>
       <c r="G77" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H77" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K77">
         <v>1</v>
@@ -5959,28 +5980,28 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B78" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C78" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D78" t="s">
-        <v>192</v>
-      </c>
-      <c r="F78">
+        <v>184</v>
+      </c>
+      <c r="F78" s="1">
         <v>76</v>
       </c>
       <c r="G78" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I78" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K78">
         <v>1</v>
@@ -6015,25 +6036,25 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B79" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C79" t="s">
         <v>12</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="1">
         <v>77</v>
       </c>
       <c r="G79" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K79">
         <v>1</v>
@@ -6068,28 +6089,28 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="B80" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C80" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D80" t="s">
-        <v>193</v>
-      </c>
-      <c r="F80">
+        <v>185</v>
+      </c>
+      <c r="F80" s="1">
         <v>78</v>
       </c>
       <c r="G80" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K80">
         <v>1</v>
@@ -6124,28 +6145,28 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B81" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C81" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D81" t="s">
-        <v>193</v>
-      </c>
-      <c r="F81">
+        <v>185</v>
+      </c>
+      <c r="F81" s="1">
         <v>79</v>
       </c>
       <c r="G81" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -6180,28 +6201,28 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B82" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C82" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D82" t="s">
-        <v>193</v>
-      </c>
-      <c r="F82">
+        <v>185</v>
+      </c>
+      <c r="F82" s="1">
         <v>80</v>
       </c>
       <c r="G82" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -6236,28 +6257,28 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B83" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C83" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D83" t="s">
-        <v>193</v>
-      </c>
-      <c r="F83">
+        <v>185</v>
+      </c>
+      <c r="F83" s="1">
         <v>81</v>
       </c>
       <c r="G83" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I83" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -6292,28 +6313,28 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="B84" t="s">
+        <v>175</v>
+      </c>
+      <c r="C84" t="s">
+        <v>76</v>
+      </c>
+      <c r="D84" t="s">
+        <v>185</v>
+      </c>
+      <c r="F84" s="1">
+        <v>82</v>
+      </c>
+      <c r="G84" t="s">
         <v>183</v>
       </c>
-      <c r="C84" t="s">
-        <v>77</v>
-      </c>
-      <c r="D84" t="s">
-        <v>193</v>
-      </c>
-      <c r="F84">
+      <c r="H84" t="s">
         <v>82</v>
       </c>
-      <c r="G84" t="s">
-        <v>191</v>
-      </c>
-      <c r="H84" t="s">
-        <v>83</v>
-      </c>
       <c r="I84" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -6348,28 +6369,28 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B85" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C85" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D85" t="s">
-        <v>194</v>
-      </c>
-      <c r="F85">
+        <v>186</v>
+      </c>
+      <c r="F85" s="1">
         <v>83</v>
       </c>
       <c r="G85" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I85" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J85">
         <v>1</v>
@@ -6407,25 +6428,25 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B86" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C86" t="s">
         <v>12</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="1">
         <v>84</v>
       </c>
       <c r="G86" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H86" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I86" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K86">
         <v>1</v>
@@ -6460,25 +6481,25 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B87" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C87" t="s">
         <v>12</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="1">
         <v>85</v>
       </c>
       <c r="G87" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H87" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I87" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -6513,25 +6534,25 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B88" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C88" t="s">
         <v>12</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="1">
         <v>86</v>
       </c>
       <c r="G88" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H88" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I88" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -6564,8 +6585,61 @@
         <v>0</v>
       </c>
     </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>249</v>
+      </c>
+      <c r="B89" t="s">
+        <v>250</v>
+      </c>
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" s="1">
+        <v>87</v>
+      </c>
+      <c r="G89" t="s">
+        <v>182</v>
+      </c>
+      <c r="H89" t="s">
+        <v>112</v>
+      </c>
+      <c r="I89" t="s">
+        <v>79</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:T88"/>
+  <autoFilter ref="A1:T89"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data Dictionary - Spring 2017.xlsx
+++ b/Data Dictionary - Spring 2017.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="266">
   <si>
     <t>Scenario</t>
   </si>
@@ -812,6 +812,9 @@
   </si>
   <si>
     <t>Use this space to explain your previous answers or provide additional feedback on the science station</t>
+  </si>
+  <si>
+    <t>T01CM1,T01CM3</t>
   </si>
 </sst>
 </file>
@@ -1642,7 +1645,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1656,7 +1659,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1664,7 +1667,8 @@
     <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -1792,6 +1796,7 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
+      <c r="E3" s="1"/>
       <c r="F3">
         <v>1</v>
       </c>
@@ -1845,6 +1850,7 @@
       <c r="C4" t="s">
         <v>20</v>
       </c>
+      <c r="E4" s="1"/>
       <c r="F4">
         <v>2</v>
       </c>
@@ -1901,6 +1907,7 @@
       <c r="D5" t="s">
         <v>25</v>
       </c>
+      <c r="E5" s="1"/>
       <c r="F5">
         <v>3</v>
       </c>
@@ -1957,6 +1964,7 @@
       <c r="D6" t="s">
         <v>137</v>
       </c>
+      <c r="E6" s="1"/>
       <c r="F6">
         <v>4</v>
       </c>
@@ -2013,6 +2021,7 @@
       <c r="D7" t="s">
         <v>131</v>
       </c>
+      <c r="E7" s="1"/>
       <c r="F7">
         <v>5</v>
       </c>
@@ -2069,6 +2078,7 @@
       <c r="D8" t="s">
         <v>32</v>
       </c>
+      <c r="E8" s="1"/>
       <c r="F8">
         <v>6</v>
       </c>
@@ -2125,6 +2135,7 @@
       <c r="D9" t="s">
         <v>37</v>
       </c>
+      <c r="E9" s="1"/>
       <c r="F9">
         <v>7</v>
       </c>
@@ -2178,6 +2189,7 @@
       <c r="C10" t="s">
         <v>12</v>
       </c>
+      <c r="E10" s="1"/>
       <c r="F10">
         <v>8</v>
       </c>
@@ -2231,6 +2243,7 @@
       <c r="C11" t="s">
         <v>12</v>
       </c>
+      <c r="E11" s="1"/>
       <c r="F11">
         <v>9</v>
       </c>
@@ -2284,6 +2297,7 @@
       <c r="C12" t="s">
         <v>12</v>
       </c>
+      <c r="E12" s="1"/>
       <c r="F12">
         <v>10</v>
       </c>
@@ -2340,6 +2354,7 @@
       <c r="D13" t="s">
         <v>41</v>
       </c>
+      <c r="E13" s="1"/>
       <c r="F13">
         <v>11</v>
       </c>
@@ -2399,6 +2414,7 @@
       <c r="D14" t="s">
         <v>52</v>
       </c>
+      <c r="E14" s="1"/>
       <c r="F14">
         <v>12</v>
       </c>
@@ -2458,6 +2474,7 @@
       <c r="D15" t="s">
         <v>55</v>
       </c>
+      <c r="E15" s="1"/>
       <c r="F15">
         <v>13</v>
       </c>
@@ -2511,6 +2528,7 @@
       <c r="C16" t="s">
         <v>12</v>
       </c>
+      <c r="E16" s="1"/>
       <c r="F16">
         <v>14</v>
       </c>
@@ -2567,6 +2585,7 @@
       <c r="D17" t="s">
         <v>41</v>
       </c>
+      <c r="E17" s="1"/>
       <c r="F17">
         <v>15</v>
       </c>
@@ -2623,6 +2642,7 @@
       <c r="C18" t="s">
         <v>20</v>
       </c>
+      <c r="E18" s="1"/>
       <c r="F18">
         <v>16</v>
       </c>
@@ -2682,6 +2702,7 @@
       <c r="D19" t="s">
         <v>52</v>
       </c>
+      <c r="E19" s="1"/>
       <c r="F19">
         <v>17</v>
       </c>
@@ -2741,6 +2762,7 @@
       <c r="D20" t="s">
         <v>41</v>
       </c>
+      <c r="E20" s="1"/>
       <c r="F20">
         <v>18</v>
       </c>
@@ -2800,6 +2822,7 @@
       <c r="D21" t="s">
         <v>69</v>
       </c>
+      <c r="E21" s="1"/>
       <c r="F21">
         <v>19</v>
       </c>
@@ -2856,6 +2879,7 @@
       <c r="D22" t="s">
         <v>69</v>
       </c>
+      <c r="E22" s="1"/>
       <c r="F22">
         <v>20</v>
       </c>
@@ -2912,6 +2936,7 @@
       <c r="D23" t="s">
         <v>69</v>
       </c>
+      <c r="E23" s="1"/>
       <c r="F23">
         <v>21</v>
       </c>
@@ -2968,6 +2993,7 @@
       <c r="D24" t="s">
         <v>81</v>
       </c>
+      <c r="E24" s="1"/>
       <c r="F24">
         <v>22</v>
       </c>
@@ -3024,6 +3050,7 @@
       <c r="D25" t="s">
         <v>81</v>
       </c>
+      <c r="E25" s="1"/>
       <c r="F25">
         <v>23</v>
       </c>
@@ -3077,6 +3104,7 @@
       <c r="C26" t="s">
         <v>12</v>
       </c>
+      <c r="E26" s="1"/>
       <c r="F26">
         <v>24</v>
       </c>
@@ -3133,6 +3161,7 @@
       <c r="D27" t="s">
         <v>88</v>
       </c>
+      <c r="E27" s="1"/>
       <c r="F27">
         <v>25</v>
       </c>
@@ -3189,6 +3218,7 @@
       <c r="D28" t="s">
         <v>88</v>
       </c>
+      <c r="E28" s="1"/>
       <c r="F28">
         <v>26</v>
       </c>
@@ -3245,6 +3275,7 @@
       <c r="D29" t="s">
         <v>88</v>
       </c>
+      <c r="E29" s="1"/>
       <c r="F29">
         <v>27</v>
       </c>
@@ -3301,6 +3332,7 @@
       <c r="D30" t="s">
         <v>88</v>
       </c>
+      <c r="E30" s="1"/>
       <c r="F30">
         <v>28</v>
       </c>
@@ -3357,6 +3389,7 @@
       <c r="D31" t="s">
         <v>88</v>
       </c>
+      <c r="E31" s="1"/>
       <c r="F31">
         <v>29</v>
       </c>
@@ -3410,6 +3443,7 @@
       <c r="C32" t="s">
         <v>12</v>
       </c>
+      <c r="E32" s="1"/>
       <c r="F32">
         <v>30</v>
       </c>
@@ -3466,6 +3500,7 @@
       <c r="D33" t="s">
         <v>88</v>
       </c>
+      <c r="E33" s="1"/>
       <c r="F33">
         <v>31</v>
       </c>
@@ -3522,6 +3557,7 @@
       <c r="D34" t="s">
         <v>88</v>
       </c>
+      <c r="E34" s="1"/>
       <c r="F34">
         <v>32</v>
       </c>
@@ -3578,6 +3614,7 @@
       <c r="D35" t="s">
         <v>88</v>
       </c>
+      <c r="E35" s="1"/>
       <c r="F35">
         <v>33</v>
       </c>
@@ -3631,6 +3668,7 @@
       <c r="C36" t="s">
         <v>12</v>
       </c>
+      <c r="E36" s="1"/>
       <c r="F36">
         <v>34</v>
       </c>
@@ -3687,6 +3725,7 @@
       <c r="D37" t="s">
         <v>88</v>
       </c>
+      <c r="E37" s="1"/>
       <c r="F37">
         <v>35</v>
       </c>
@@ -3743,6 +3782,7 @@
       <c r="D38" t="s">
         <v>88</v>
       </c>
+      <c r="E38" s="1"/>
       <c r="F38">
         <v>36</v>
       </c>
@@ -3799,6 +3839,7 @@
       <c r="D39" t="s">
         <v>88</v>
       </c>
+      <c r="E39" s="1"/>
       <c r="F39">
         <v>37</v>
       </c>
@@ -3855,6 +3896,7 @@
       <c r="D40" t="s">
         <v>88</v>
       </c>
+      <c r="E40" s="1"/>
       <c r="F40">
         <v>38</v>
       </c>
@@ -3908,6 +3950,7 @@
       <c r="C41" t="s">
         <v>12</v>
       </c>
+      <c r="E41" s="1"/>
       <c r="F41">
         <v>39</v>
       </c>
@@ -3964,6 +4007,7 @@
       <c r="D42" t="s">
         <v>88</v>
       </c>
+      <c r="E42" s="1"/>
       <c r="F42">
         <v>40</v>
       </c>
@@ -4020,6 +4064,7 @@
       <c r="D43" t="s">
         <v>88</v>
       </c>
+      <c r="E43" s="1"/>
       <c r="F43">
         <v>41</v>
       </c>
@@ -4076,6 +4121,7 @@
       <c r="D44" t="s">
         <v>88</v>
       </c>
+      <c r="E44" s="1"/>
       <c r="F44">
         <v>42</v>
       </c>
@@ -4132,6 +4178,7 @@
       <c r="D45" t="s">
         <v>88</v>
       </c>
+      <c r="E45" s="1"/>
       <c r="F45">
         <v>43</v>
       </c>
@@ -4185,6 +4232,7 @@
       <c r="C46" t="s">
         <v>12</v>
       </c>
+      <c r="E46" s="1"/>
       <c r="F46">
         <v>44</v>
       </c>
@@ -4238,6 +4286,7 @@
       <c r="C47" t="s">
         <v>12</v>
       </c>
+      <c r="E47" s="1"/>
       <c r="F47">
         <v>45</v>
       </c>
@@ -4294,6 +4343,7 @@
       <c r="D48" t="s">
         <v>88</v>
       </c>
+      <c r="E48" s="1"/>
       <c r="F48">
         <v>46</v>
       </c>
@@ -4350,6 +4400,7 @@
       <c r="D49" t="s">
         <v>88</v>
       </c>
+      <c r="E49" s="1"/>
       <c r="F49">
         <v>47</v>
       </c>
@@ -4406,6 +4457,7 @@
       <c r="D50" t="s">
         <v>88</v>
       </c>
+      <c r="E50" s="1"/>
       <c r="F50">
         <v>48</v>
       </c>
@@ -4462,6 +4514,7 @@
       <c r="D51" t="s">
         <v>88</v>
       </c>
+      <c r="E51" s="1"/>
       <c r="F51" s="1">
         <v>49</v>
       </c>
@@ -4515,6 +4568,7 @@
       <c r="C52" t="s">
         <v>12</v>
       </c>
+      <c r="E52" s="1"/>
       <c r="F52" s="1">
         <v>50</v>
       </c>
@@ -4571,6 +4625,7 @@
       <c r="D53" t="s">
         <v>88</v>
       </c>
+      <c r="E53" s="1"/>
       <c r="F53" s="1">
         <v>51</v>
       </c>
@@ -4627,6 +4682,7 @@
       <c r="D54" t="s">
         <v>88</v>
       </c>
+      <c r="E54" s="1"/>
       <c r="F54" s="1">
         <v>52</v>
       </c>
@@ -4683,6 +4739,7 @@
       <c r="D55" t="s">
         <v>88</v>
       </c>
+      <c r="E55" s="1"/>
       <c r="F55" s="1">
         <v>53</v>
       </c>
@@ -4739,6 +4796,7 @@
       <c r="D56" t="s">
         <v>88</v>
       </c>
+      <c r="E56" s="1"/>
       <c r="F56" s="1">
         <v>54</v>
       </c>
@@ -4792,6 +4850,7 @@
       <c r="C57" t="s">
         <v>12</v>
       </c>
+      <c r="E57" s="1"/>
       <c r="F57" s="1">
         <v>55</v>
       </c>
@@ -5192,6 +5251,7 @@
       <c r="D64" t="s">
         <v>41</v>
       </c>
+      <c r="E64" s="1"/>
       <c r="F64" s="1">
         <v>62</v>
       </c>
@@ -5248,6 +5308,7 @@
       <c r="D65" t="s">
         <v>88</v>
       </c>
+      <c r="E65" s="1"/>
       <c r="F65" s="1">
         <v>63</v>
       </c>
@@ -5304,6 +5365,9 @@
       <c r="D66" t="s">
         <v>41</v>
       </c>
+      <c r="E66" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="F66" s="1">
         <v>64</v>
       </c>
@@ -5363,6 +5427,9 @@
       <c r="D67" t="s">
         <v>77</v>
       </c>
+      <c r="E67" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="F67" s="1">
         <v>65</v>
       </c>
@@ -5422,6 +5489,9 @@
       <c r="D68" t="s">
         <v>88</v>
       </c>
+      <c r="E68" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="F68" s="1">
         <v>66</v>
       </c>
@@ -5478,6 +5548,9 @@
       <c r="D69" t="s">
         <v>88</v>
       </c>
+      <c r="E69" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="F69" s="1">
         <v>67</v>
       </c>
@@ -5534,6 +5607,9 @@
       <c r="D70" t="s">
         <v>121</v>
       </c>
+      <c r="E70" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="F70" s="1">
         <v>68</v>
       </c>
@@ -5593,6 +5669,9 @@
       <c r="D71" t="s">
         <v>88</v>
       </c>
+      <c r="E71" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="F71" s="1">
         <v>69</v>
       </c>
@@ -5649,6 +5728,9 @@
       <c r="C72" t="s">
         <v>12</v>
       </c>
+      <c r="E72" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="F72" s="1">
         <v>70</v>
       </c>
@@ -5708,6 +5790,9 @@
       <c r="D73" t="s">
         <v>88</v>
       </c>
+      <c r="E73" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="F73" s="1">
         <v>71</v>
       </c>
@@ -5764,6 +5849,9 @@
       <c r="C74" t="s">
         <v>12</v>
       </c>
+      <c r="E74" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="F74" s="1">
         <v>72</v>
       </c>
@@ -5823,6 +5911,9 @@
       <c r="D75" t="s">
         <v>88</v>
       </c>
+      <c r="E75" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="F75" s="1">
         <v>73</v>
       </c>
@@ -5879,6 +5970,9 @@
       <c r="D76" t="s">
         <v>88</v>
       </c>
+      <c r="E76" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="F76" s="1">
         <v>74</v>
       </c>
@@ -5935,6 +6029,9 @@
       <c r="D77" t="s">
         <v>88</v>
       </c>
+      <c r="E77" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="F77" s="1">
         <v>75</v>
       </c>
@@ -5991,6 +6088,9 @@
       <c r="D78" t="s">
         <v>184</v>
       </c>
+      <c r="E78" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="F78" s="1">
         <v>76</v>
       </c>
@@ -6044,6 +6144,9 @@
       <c r="C79" t="s">
         <v>12</v>
       </c>
+      <c r="E79" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="F79" s="1">
         <v>77</v>
       </c>
@@ -6100,6 +6203,9 @@
       <c r="D80" t="s">
         <v>185</v>
       </c>
+      <c r="E80" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="F80" s="1">
         <v>78</v>
       </c>
@@ -6156,6 +6262,9 @@
       <c r="D81" t="s">
         <v>185</v>
       </c>
+      <c r="E81" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="F81" s="1">
         <v>79</v>
       </c>
@@ -6212,6 +6321,9 @@
       <c r="D82" t="s">
         <v>185</v>
       </c>
+      <c r="E82" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="F82" s="1">
         <v>80</v>
       </c>
@@ -6268,6 +6380,9 @@
       <c r="D83" t="s">
         <v>185</v>
       </c>
+      <c r="E83" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="F83" s="1">
         <v>81</v>
       </c>
@@ -6324,6 +6439,9 @@
       <c r="D84" t="s">
         <v>185</v>
       </c>
+      <c r="E84" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="F84" s="1">
         <v>82</v>
       </c>
@@ -6380,6 +6498,9 @@
       <c r="D85" t="s">
         <v>186</v>
       </c>
+      <c r="E85" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="F85" s="1">
         <v>83</v>
       </c>
@@ -6436,6 +6557,9 @@
       <c r="C86" t="s">
         <v>12</v>
       </c>
+      <c r="E86" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="F86" s="1">
         <v>84</v>
       </c>
@@ -6489,6 +6613,9 @@
       <c r="C87" t="s">
         <v>12</v>
       </c>
+      <c r="E87" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="F87" s="1">
         <v>85</v>
       </c>
@@ -6542,6 +6669,9 @@
       <c r="C88" t="s">
         <v>12</v>
       </c>
+      <c r="E88" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="F88" s="1">
         <v>86</v>
       </c>
@@ -6594,6 +6724,9 @@
       </c>
       <c r="C89" t="s">
         <v>12</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="F89" s="1">
         <v>87</v>

--- a/Data Dictionary - Spring 2017.xlsx
+++ b/Data Dictionary - Spring 2017.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="265">
   <si>
     <t>Scenario</t>
   </si>
@@ -812,9 +812,6 @@
   </si>
   <si>
     <t>Use this space to explain your previous answers or provide additional feedback on the science station</t>
-  </si>
-  <si>
-    <t>T01CM1,T01CM3</t>
   </si>
 </sst>
 </file>
@@ -1645,7 +1642,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1659,7 +1656,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C66" sqref="C66"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1667,8 +1664,7 @@
     <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -1796,7 +1792,6 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1"/>
       <c r="F3">
         <v>1</v>
       </c>
@@ -1850,7 +1845,6 @@
       <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1"/>
       <c r="F4">
         <v>2</v>
       </c>
@@ -1907,7 +1901,6 @@
       <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1"/>
       <c r="F5">
         <v>3</v>
       </c>
@@ -1964,7 +1957,6 @@
       <c r="D6" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="1"/>
       <c r="F6">
         <v>4</v>
       </c>
@@ -2021,7 +2013,6 @@
       <c r="D7" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="1"/>
       <c r="F7">
         <v>5</v>
       </c>
@@ -2078,7 +2069,6 @@
       <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="1"/>
       <c r="F8">
         <v>6</v>
       </c>
@@ -2135,7 +2125,6 @@
       <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="1"/>
       <c r="F9">
         <v>7</v>
       </c>
@@ -2189,7 +2178,6 @@
       <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="1"/>
       <c r="F10">
         <v>8</v>
       </c>
@@ -2243,7 +2231,6 @@
       <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="1"/>
       <c r="F11">
         <v>9</v>
       </c>
@@ -2297,7 +2284,6 @@
       <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="1"/>
       <c r="F12">
         <v>10</v>
       </c>
@@ -2354,7 +2340,6 @@
       <c r="D13" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="1"/>
       <c r="F13">
         <v>11</v>
       </c>
@@ -2414,7 +2399,6 @@
       <c r="D14" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="1"/>
       <c r="F14">
         <v>12</v>
       </c>
@@ -2474,7 +2458,6 @@
       <c r="D15" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="1"/>
       <c r="F15">
         <v>13</v>
       </c>
@@ -2528,7 +2511,6 @@
       <c r="C16" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="1"/>
       <c r="F16">
         <v>14</v>
       </c>
@@ -2585,7 +2567,6 @@
       <c r="D17" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="1"/>
       <c r="F17">
         <v>15</v>
       </c>
@@ -2642,7 +2623,6 @@
       <c r="C18" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="1"/>
       <c r="F18">
         <v>16</v>
       </c>
@@ -2702,7 +2682,6 @@
       <c r="D19" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="1"/>
       <c r="F19">
         <v>17</v>
       </c>
@@ -2762,7 +2741,6 @@
       <c r="D20" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="1"/>
       <c r="F20">
         <v>18</v>
       </c>
@@ -2822,7 +2800,6 @@
       <c r="D21" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="1"/>
       <c r="F21">
         <v>19</v>
       </c>
@@ -2879,7 +2856,6 @@
       <c r="D22" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="1"/>
       <c r="F22">
         <v>20</v>
       </c>
@@ -2936,7 +2912,6 @@
       <c r="D23" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="1"/>
       <c r="F23">
         <v>21</v>
       </c>
@@ -2993,7 +2968,6 @@
       <c r="D24" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="1"/>
       <c r="F24">
         <v>22</v>
       </c>
@@ -3050,7 +3024,6 @@
       <c r="D25" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="1"/>
       <c r="F25">
         <v>23</v>
       </c>
@@ -3104,7 +3077,6 @@
       <c r="C26" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="1"/>
       <c r="F26">
         <v>24</v>
       </c>
@@ -3161,7 +3133,6 @@
       <c r="D27" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="1"/>
       <c r="F27">
         <v>25</v>
       </c>
@@ -3218,7 +3189,6 @@
       <c r="D28" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="1"/>
       <c r="F28">
         <v>26</v>
       </c>
@@ -3275,7 +3245,6 @@
       <c r="D29" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="1"/>
       <c r="F29">
         <v>27</v>
       </c>
@@ -3332,7 +3301,6 @@
       <c r="D30" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="1"/>
       <c r="F30">
         <v>28</v>
       </c>
@@ -3389,7 +3357,6 @@
       <c r="D31" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="1"/>
       <c r="F31">
         <v>29</v>
       </c>
@@ -3443,7 +3410,6 @@
       <c r="C32" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="1"/>
       <c r="F32">
         <v>30</v>
       </c>
@@ -3500,7 +3466,6 @@
       <c r="D33" t="s">
         <v>88</v>
       </c>
-      <c r="E33" s="1"/>
       <c r="F33">
         <v>31</v>
       </c>
@@ -3557,7 +3522,6 @@
       <c r="D34" t="s">
         <v>88</v>
       </c>
-      <c r="E34" s="1"/>
       <c r="F34">
         <v>32</v>
       </c>
@@ -3614,7 +3578,6 @@
       <c r="D35" t="s">
         <v>88</v>
       </c>
-      <c r="E35" s="1"/>
       <c r="F35">
         <v>33</v>
       </c>
@@ -3668,7 +3631,6 @@
       <c r="C36" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="1"/>
       <c r="F36">
         <v>34</v>
       </c>
@@ -3725,7 +3687,6 @@
       <c r="D37" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="1"/>
       <c r="F37">
         <v>35</v>
       </c>
@@ -3782,7 +3743,6 @@
       <c r="D38" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="1"/>
       <c r="F38">
         <v>36</v>
       </c>
@@ -3839,7 +3799,6 @@
       <c r="D39" t="s">
         <v>88</v>
       </c>
-      <c r="E39" s="1"/>
       <c r="F39">
         <v>37</v>
       </c>
@@ -3896,7 +3855,6 @@
       <c r="D40" t="s">
         <v>88</v>
       </c>
-      <c r="E40" s="1"/>
       <c r="F40">
         <v>38</v>
       </c>
@@ -3950,7 +3908,6 @@
       <c r="C41" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="1"/>
       <c r="F41">
         <v>39</v>
       </c>
@@ -4007,7 +3964,6 @@
       <c r="D42" t="s">
         <v>88</v>
       </c>
-      <c r="E42" s="1"/>
       <c r="F42">
         <v>40</v>
       </c>
@@ -4064,7 +4020,6 @@
       <c r="D43" t="s">
         <v>88</v>
       </c>
-      <c r="E43" s="1"/>
       <c r="F43">
         <v>41</v>
       </c>
@@ -4121,7 +4076,6 @@
       <c r="D44" t="s">
         <v>88</v>
       </c>
-      <c r="E44" s="1"/>
       <c r="F44">
         <v>42</v>
       </c>
@@ -4178,7 +4132,6 @@
       <c r="D45" t="s">
         <v>88</v>
       </c>
-      <c r="E45" s="1"/>
       <c r="F45">
         <v>43</v>
       </c>
@@ -4232,7 +4185,6 @@
       <c r="C46" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="1"/>
       <c r="F46">
         <v>44</v>
       </c>
@@ -4286,7 +4238,6 @@
       <c r="C47" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="1"/>
       <c r="F47">
         <v>45</v>
       </c>
@@ -4343,7 +4294,6 @@
       <c r="D48" t="s">
         <v>88</v>
       </c>
-      <c r="E48" s="1"/>
       <c r="F48">
         <v>46</v>
       </c>
@@ -4400,7 +4350,6 @@
       <c r="D49" t="s">
         <v>88</v>
       </c>
-      <c r="E49" s="1"/>
       <c r="F49">
         <v>47</v>
       </c>
@@ -4457,7 +4406,6 @@
       <c r="D50" t="s">
         <v>88</v>
       </c>
-      <c r="E50" s="1"/>
       <c r="F50">
         <v>48</v>
       </c>
@@ -4514,7 +4462,6 @@
       <c r="D51" t="s">
         <v>88</v>
       </c>
-      <c r="E51" s="1"/>
       <c r="F51" s="1">
         <v>49</v>
       </c>
@@ -4568,7 +4515,6 @@
       <c r="C52" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="1"/>
       <c r="F52" s="1">
         <v>50</v>
       </c>
@@ -4625,7 +4571,6 @@
       <c r="D53" t="s">
         <v>88</v>
       </c>
-      <c r="E53" s="1"/>
       <c r="F53" s="1">
         <v>51</v>
       </c>
@@ -4682,7 +4627,6 @@
       <c r="D54" t="s">
         <v>88</v>
       </c>
-      <c r="E54" s="1"/>
       <c r="F54" s="1">
         <v>52</v>
       </c>
@@ -4739,7 +4683,6 @@
       <c r="D55" t="s">
         <v>88</v>
       </c>
-      <c r="E55" s="1"/>
       <c r="F55" s="1">
         <v>53</v>
       </c>
@@ -4796,7 +4739,6 @@
       <c r="D56" t="s">
         <v>88</v>
       </c>
-      <c r="E56" s="1"/>
       <c r="F56" s="1">
         <v>54</v>
       </c>
@@ -4850,7 +4792,6 @@
       <c r="C57" t="s">
         <v>12</v>
       </c>
-      <c r="E57" s="1"/>
       <c r="F57" s="1">
         <v>55</v>
       </c>
@@ -5251,7 +5192,6 @@
       <c r="D64" t="s">
         <v>41</v>
       </c>
-      <c r="E64" s="1"/>
       <c r="F64" s="1">
         <v>62</v>
       </c>
@@ -5308,7 +5248,6 @@
       <c r="D65" t="s">
         <v>88</v>
       </c>
-      <c r="E65" s="1"/>
       <c r="F65" s="1">
         <v>63</v>
       </c>
@@ -5365,9 +5304,6 @@
       <c r="D66" t="s">
         <v>41</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="F66" s="1">
         <v>64</v>
       </c>
@@ -5427,9 +5363,6 @@
       <c r="D67" t="s">
         <v>77</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="F67" s="1">
         <v>65</v>
       </c>
@@ -5489,9 +5422,6 @@
       <c r="D68" t="s">
         <v>88</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="F68" s="1">
         <v>66</v>
       </c>
@@ -5548,9 +5478,6 @@
       <c r="D69" t="s">
         <v>88</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="F69" s="1">
         <v>67</v>
       </c>
@@ -5607,9 +5534,6 @@
       <c r="D70" t="s">
         <v>121</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="F70" s="1">
         <v>68</v>
       </c>
@@ -5669,9 +5593,6 @@
       <c r="D71" t="s">
         <v>88</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="F71" s="1">
         <v>69</v>
       </c>
@@ -5728,9 +5649,6 @@
       <c r="C72" t="s">
         <v>12</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="F72" s="1">
         <v>70</v>
       </c>
@@ -5790,9 +5708,6 @@
       <c r="D73" t="s">
         <v>88</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="F73" s="1">
         <v>71</v>
       </c>
@@ -5849,9 +5764,6 @@
       <c r="C74" t="s">
         <v>12</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="F74" s="1">
         <v>72</v>
       </c>
@@ -5911,9 +5823,6 @@
       <c r="D75" t="s">
         <v>88</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="F75" s="1">
         <v>73</v>
       </c>
@@ -5970,9 +5879,6 @@
       <c r="D76" t="s">
         <v>88</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="F76" s="1">
         <v>74</v>
       </c>
@@ -6029,9 +5935,6 @@
       <c r="D77" t="s">
         <v>88</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="F77" s="1">
         <v>75</v>
       </c>
@@ -6088,9 +5991,6 @@
       <c r="D78" t="s">
         <v>184</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="F78" s="1">
         <v>76</v>
       </c>
@@ -6144,9 +6044,6 @@
       <c r="C79" t="s">
         <v>12</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="F79" s="1">
         <v>77</v>
       </c>
@@ -6203,9 +6100,6 @@
       <c r="D80" t="s">
         <v>185</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="F80" s="1">
         <v>78</v>
       </c>
@@ -6262,9 +6156,6 @@
       <c r="D81" t="s">
         <v>185</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="F81" s="1">
         <v>79</v>
       </c>
@@ -6321,9 +6212,6 @@
       <c r="D82" t="s">
         <v>185</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="F82" s="1">
         <v>80</v>
       </c>
@@ -6380,9 +6268,6 @@
       <c r="D83" t="s">
         <v>185</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="F83" s="1">
         <v>81</v>
       </c>
@@ -6439,9 +6324,6 @@
       <c r="D84" t="s">
         <v>185</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="F84" s="1">
         <v>82</v>
       </c>
@@ -6498,9 +6380,6 @@
       <c r="D85" t="s">
         <v>186</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="F85" s="1">
         <v>83</v>
       </c>
@@ -6557,9 +6436,6 @@
       <c r="C86" t="s">
         <v>12</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="F86" s="1">
         <v>84</v>
       </c>
@@ -6613,9 +6489,6 @@
       <c r="C87" t="s">
         <v>12</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="F87" s="1">
         <v>85</v>
       </c>
@@ -6669,9 +6542,6 @@
       <c r="C88" t="s">
         <v>12</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="F88" s="1">
         <v>86</v>
       </c>
@@ -6724,9 +6594,6 @@
       </c>
       <c r="C89" t="s">
         <v>12</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="F89" s="1">
         <v>87</v>
